--- a/Data/FakeData/fakedata_properties_v2.xlsx
+++ b/Data/FakeData/fakedata_properties_v2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="50640" yWindow="9040" windowWidth="32720" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35540" windowHeight="22800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="259">
   <si>
     <t>Details of Fake Data</t>
   </si>
@@ -469,6 +470,333 @@
   </si>
   <si>
     <t>exit</t>
+  </si>
+  <si>
+    <t>Host_Galaxy</t>
+  </si>
+  <si>
+    <t>7700-7800</t>
+  </si>
+  <si>
+    <t>S/N range (pretruncated)</t>
+  </si>
+  <si>
+    <t>elliptical1_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical2_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical3_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical4_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical5_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical6_werr.dat</t>
+  </si>
+  <si>
+    <t>s04_werr.dat</t>
+  </si>
+  <si>
+    <t>s03_werr.dat</t>
+  </si>
+  <si>
+    <t>s02_werr.dat</t>
+  </si>
+  <si>
+    <t>s01_werr.dat</t>
+  </si>
+  <si>
+    <t>s05_werr.dat</t>
+  </si>
+  <si>
+    <t>s06_werr.dat</t>
+  </si>
+  <si>
+    <t>sa1_werr.dat</t>
+  </si>
+  <si>
+    <t>sa2_werr.dat</t>
+  </si>
+  <si>
+    <t>sa3_werr.dat</t>
+  </si>
+  <si>
+    <t>sa4_werr.dat</t>
+  </si>
+  <si>
+    <t>sa5_werr.dat</t>
+  </si>
+  <si>
+    <t>sa6_werr.dat</t>
+  </si>
+  <si>
+    <t>sb1_werr.dat</t>
+  </si>
+  <si>
+    <t>sb2_werr.dat</t>
+  </si>
+  <si>
+    <t>sb3_werr.dat</t>
+  </si>
+  <si>
+    <t>sb4_werr.dat</t>
+  </si>
+  <si>
+    <t>sb5_werr.dat</t>
+  </si>
+  <si>
+    <t>sb6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_6_werr.dat</t>
+  </si>
+  <si>
+    <t>age139_m42</t>
+  </si>
+  <si>
+    <t>age150_m42</t>
+  </si>
+  <si>
+    <t>age161_m42</t>
+  </si>
+  <si>
+    <t>age185_m42</t>
+  </si>
+  <si>
+    <t>age193_m42</t>
+  </si>
+  <si>
+    <t>age116_m62</t>
+  </si>
+  <si>
+    <t>age125_m62</t>
+  </si>
+  <si>
+    <t>age132_m62</t>
+  </si>
+  <si>
+    <t>age135_m62</t>
+  </si>
+  <si>
+    <t>age139_m62</t>
+  </si>
+  <si>
+    <t>age150_m62</t>
+  </si>
+  <si>
+    <t>age161_m62</t>
+  </si>
+  <si>
+    <t>age020_m72</t>
+  </si>
+  <si>
+    <t>age045_m72</t>
+  </si>
+  <si>
+    <t>age055_m72</t>
+  </si>
+  <si>
+    <t>age070_m72</t>
+  </si>
+  <si>
+    <t>age090_m72</t>
+  </si>
+  <si>
+    <t>age104_m72</t>
+  </si>
+  <si>
+    <t>age116_m72</t>
+  </si>
+  <si>
+    <t>age125_m72</t>
+  </si>
+  <si>
+    <t>age132_m72</t>
+  </si>
+  <si>
+    <t>age135_m72</t>
+  </si>
+  <si>
+    <t>age139_m72</t>
+  </si>
+  <si>
+    <t>age150_m72</t>
+  </si>
+  <si>
+    <t>age185_m72</t>
+  </si>
+  <si>
+    <t>age193_m72</t>
+  </si>
+  <si>
+    <t>bulge1_werr.dat</t>
+  </si>
+  <si>
+    <t>6700-6800</t>
+  </si>
+  <si>
+    <t>bulge4_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge5_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge3_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge2_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge6_werr.dat</t>
+  </si>
+  <si>
+    <t>sc1_werr.dat</t>
+  </si>
+  <si>
+    <t>sc2_werr.dat</t>
+  </si>
+  <si>
+    <t>sc3_werr.dat</t>
+  </si>
+  <si>
+    <t>sc4_werr.dat</t>
+  </si>
+  <si>
+    <t>sc5_werr.dat</t>
+  </si>
+  <si>
+    <t>sc6_werr.dat</t>
+  </si>
+  <si>
+    <t>STARLIGHT Bulge Components Used (Applicable to all 6 fake spectra of each type)</t>
+  </si>
+  <si>
+    <t>Fake spectrum name</t>
+  </si>
+  <si>
+    <t>Mcor_j(%)</t>
+  </si>
+  <si>
+    <t>component_j</t>
+  </si>
+  <si>
+    <t>Host Galaxy Component Notes:</t>
+  </si>
+  <si>
+    <t>There are 12 different host galaxy templates above, each formatted to match the 6 different templates I used for the power law continuum and emission line spectra for each combining later on.  The only exception is for template 6 for all host galaxies because the host galaxy data never went past 9800A.  Also for the bulge and sc galaxy, the data didn't go past 7500A, so templates 3 and 6 must be truncated at 7500A</t>
+  </si>
+  <si>
+    <t>All detailed info about the Bruzual &amp; Charlot models that went to fit each host galaxy template are in the subdirectory Host_comp/templates/*.starlight  but I have included Mcor_j(%) and component_j for each, just to show what kind of numbers of models were needed to fit each host and with what fractional contributions (Mcor_j's will add to 1.0 for a given galaxy type).  You can see that STARLIGHT took between 2 and 12 models co-added to fit the Kinney spectra, while Kevin allowed up to 29 models in each run.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -669,15 +997,113 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -746,6 +1172,52 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -814,6 +1286,52 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1143,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A172" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1155,7 +1673,7 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -3708,6 +4226,2592 @@
         <v>149</v>
       </c>
     </row>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="J98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" t="s">
+        <v>253</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>152</v>
+      </c>
+      <c r="H99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" t="s">
+        <v>254</v>
+      </c>
+      <c r="K99" t="s">
+        <v>255</v>
+      </c>
+      <c r="L99" t="s">
+        <v>254</v>
+      </c>
+      <c r="M99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>53.2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>240</v>
+      </c>
+      <c r="H100">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.11198</v>
+      </c>
+      <c r="K100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F101">
+        <v>30.2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.25766</v>
+      </c>
+      <c r="K101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C102" s="4">
+        <v>7500</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G102" t="s">
+        <v>240</v>
+      </c>
+      <c r="H102">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.55054000000000003</v>
+      </c>
+      <c r="K102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C103" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F103">
+        <v>101.6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>240</v>
+      </c>
+      <c r="H103">
+        <v>0.01</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1.3421000000000001</v>
+      </c>
+      <c r="K103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C104" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F104">
+        <v>79.5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J104" s="2">
+        <v>4.9949000000000003</v>
+      </c>
+      <c r="K104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105">
+        <v>1400</v>
+      </c>
+      <c r="C105">
+        <v>7500</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>41.8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J105" s="2">
+        <v>92.742999999999995</v>
+      </c>
+      <c r="K105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C107" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>49.4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>151</v>
+      </c>
+      <c r="H107">
+        <v>0.02</v>
+      </c>
+      <c r="J107" s="2">
+        <v>8.4850999999999996E-2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>220</v>
+      </c>
+      <c r="L107" s="2">
+        <v>96.254000000000005</v>
+      </c>
+      <c r="M107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C108" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F108">
+        <v>27.9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H108">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.40932000000000002</v>
+      </c>
+      <c r="K108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C109" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>69</v>
+      </c>
+      <c r="G109" t="s">
+        <v>151</v>
+      </c>
+      <c r="H109">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J109" s="2">
+        <v>2.4421999999999999E-2</v>
+      </c>
+      <c r="K109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F110">
+        <v>99.1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>151</v>
+      </c>
+      <c r="H110">
+        <v>0.01</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0.17595</v>
+      </c>
+      <c r="K110" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C111" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F111">
+        <v>83.5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H111">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1.7351999999999999E-3</v>
+      </c>
+      <c r="K111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112">
+        <v>1400</v>
+      </c>
+      <c r="C112">
+        <v>9800</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>35.5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>151</v>
+      </c>
+      <c r="H112">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J112" s="2">
+        <v>3.0501999999999998</v>
+      </c>
+      <c r="K112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>55.7</v>
+      </c>
+      <c r="G114" t="s">
+        <v>151</v>
+      </c>
+      <c r="H114">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J114" s="2">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="K114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C115" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F115">
+        <v>33.9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>151</v>
+      </c>
+      <c r="H115">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J115" s="2">
+        <v>4.3585000000000003</v>
+      </c>
+      <c r="K115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C116" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>61.2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H116">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J116" s="2">
+        <v>18.779</v>
+      </c>
+      <c r="K116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F117">
+        <v>101.6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117">
+        <v>0.01</v>
+      </c>
+      <c r="J117" s="2">
+        <v>72.087999999999994</v>
+      </c>
+      <c r="K117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C118" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F118">
+        <v>78.3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>151</v>
+      </c>
+      <c r="H118">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119">
+        <v>1400</v>
+      </c>
+      <c r="C119">
+        <v>9800</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>45.6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>151</v>
+      </c>
+      <c r="H119">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C121" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>46</v>
+      </c>
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
+      <c r="H121">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J121" s="2">
+        <v>4.8411999999999997</v>
+      </c>
+      <c r="K121" t="s">
+        <v>213</v>
+      </c>
+      <c r="L121" s="2">
+        <v>13.007</v>
+      </c>
+      <c r="M121" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C122" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F122">
+        <v>30.9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>151</v>
+      </c>
+      <c r="H122">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J122" s="2">
+        <v>24.946999999999999</v>
+      </c>
+      <c r="K122" t="s">
+        <v>214</v>
+      </c>
+      <c r="L122" s="2">
+        <v>9.7298000000000003E-3</v>
+      </c>
+      <c r="M122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C123" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>72.5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>151</v>
+      </c>
+      <c r="H123">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J123" s="2">
+        <v>18.948</v>
+      </c>
+      <c r="K123" t="s">
+        <v>215</v>
+      </c>
+      <c r="L123" s="2">
+        <v>8.3491999999999997E-2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F124">
+        <v>100.7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
+      <c r="H124">
+        <v>0.01</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1.9061999999999999</v>
+      </c>
+      <c r="K124" t="s">
+        <v>219</v>
+      </c>
+      <c r="L124" s="2">
+        <v>21.850999999999999</v>
+      </c>
+      <c r="M124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C125" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F125">
+        <v>79</v>
+      </c>
+      <c r="G125" t="s">
+        <v>151</v>
+      </c>
+      <c r="H125">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J125" s="2">
+        <v>2.1873</v>
+      </c>
+      <c r="K125" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126">
+        <v>1400</v>
+      </c>
+      <c r="C126">
+        <v>9800</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>43.4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
+      <c r="H126">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J126" s="2">
+        <v>12.218999999999999</v>
+      </c>
+      <c r="K126" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>51.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>151</v>
+      </c>
+      <c r="H128">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J128" s="2">
+        <v>38.531999999999996</v>
+      </c>
+      <c r="K128" t="s">
+        <v>214</v>
+      </c>
+      <c r="L128" s="2">
+        <v>3.9912000000000003E-2</v>
+      </c>
+      <c r="M128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C129" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F129">
+        <v>31.6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>151</v>
+      </c>
+      <c r="H129">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1.1606E-2</v>
+      </c>
+      <c r="K129" t="s">
+        <v>215</v>
+      </c>
+      <c r="L129" s="2">
+        <v>14.362</v>
+      </c>
+      <c r="M129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C130" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G130" t="s">
+        <v>151</v>
+      </c>
+      <c r="H130">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J130" s="2">
+        <v>12.657</v>
+      </c>
+      <c r="K130" t="s">
+        <v>216</v>
+      </c>
+      <c r="L130" s="2">
+        <v>32.636000000000003</v>
+      </c>
+      <c r="M130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F131">
+        <v>99.8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>151</v>
+      </c>
+      <c r="H131">
+        <v>0.01</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1.7131000000000001</v>
+      </c>
+      <c r="K131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C132" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F132">
+        <v>83.1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>151</v>
+      </c>
+      <c r="H132">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J132" s="2">
+        <v>2.2977000000000001E-2</v>
+      </c>
+      <c r="K132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133">
+        <v>1400</v>
+      </c>
+      <c r="C133">
+        <v>9800</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>43.3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>151</v>
+      </c>
+      <c r="H133">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J133" s="2">
+        <v>2.5349E-2</v>
+      </c>
+      <c r="K133" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>51</v>
+      </c>
+      <c r="G135" t="s">
+        <v>151</v>
+      </c>
+      <c r="H135">
+        <v>0.02</v>
+      </c>
+      <c r="J135" s="2">
+        <v>14.565</v>
+      </c>
+      <c r="K135" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B136" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C136" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F136">
+        <v>28.9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+      <c r="H136">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J136" s="2">
+        <v>85.435000000000002</v>
+      </c>
+      <c r="K136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B137" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C137" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>65.7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>151</v>
+      </c>
+      <c r="H137">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C138" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="G138" t="s">
+        <v>151</v>
+      </c>
+      <c r="H138">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C139" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F139">
+        <v>80.5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>151</v>
+      </c>
+      <c r="H139">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140">
+        <v>1400</v>
+      </c>
+      <c r="C140">
+        <v>9800</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>42.5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>151</v>
+      </c>
+      <c r="H140">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C142" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>58.4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>151</v>
+      </c>
+      <c r="H142">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J142" s="2">
+        <v>9.0803999999999991</v>
+      </c>
+      <c r="K142" t="s">
+        <v>213</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0.39632000000000001</v>
+      </c>
+      <c r="M142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C143" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F143">
+        <v>28.5</v>
+      </c>
+      <c r="G143" t="s">
+        <v>151</v>
+      </c>
+      <c r="H143">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J143" s="2">
+        <v>26.14</v>
+      </c>
+      <c r="K143" t="s">
+        <v>214</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0.25863000000000003</v>
+      </c>
+      <c r="M143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C144" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>66.5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>151</v>
+      </c>
+      <c r="H144">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J144" s="2">
+        <v>30.623000000000001</v>
+      </c>
+      <c r="K144" t="s">
+        <v>215</v>
+      </c>
+      <c r="L144" s="2">
+        <v>1.5811999999999999</v>
+      </c>
+      <c r="M144" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F145">
+        <v>84.2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H145">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J145" s="2">
+        <v>14.544</v>
+      </c>
+      <c r="K145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B146" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C146" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F146">
+        <v>78.7</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
+      <c r="H146">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J146" s="2">
+        <v>17.372</v>
+      </c>
+      <c r="K146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147">
+        <v>1400</v>
+      </c>
+      <c r="C147">
+        <v>9800</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>39</v>
+      </c>
+      <c r="G147" t="s">
+        <v>151</v>
+      </c>
+      <c r="H147">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J147" s="2">
+        <v>3.4949999999999998E-3</v>
+      </c>
+      <c r="K147" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>50.7</v>
+      </c>
+      <c r="G149" t="s">
+        <v>151</v>
+      </c>
+      <c r="H149">
+        <v>0.02</v>
+      </c>
+      <c r="J149" s="2">
+        <v>17.052</v>
+      </c>
+      <c r="K149" t="s">
+        <v>214</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="M149" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C150" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F150">
+        <v>28.4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>151</v>
+      </c>
+      <c r="H150">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J150" s="2">
+        <v>72.355000000000004</v>
+      </c>
+      <c r="K150" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C151" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>58.3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>151</v>
+      </c>
+      <c r="H151">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J151" s="2">
+        <v>4.6028000000000002</v>
+      </c>
+      <c r="K151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C152" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F152">
+        <v>99.4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>151</v>
+      </c>
+      <c r="H152">
+        <v>0.01</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0.16211999999999999</v>
+      </c>
+      <c r="K152" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C153" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F153">
+        <v>81.8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>151</v>
+      </c>
+      <c r="H153">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J153" s="2">
+        <v>5.5645E-2</v>
+      </c>
+      <c r="K153" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154">
+        <v>1400</v>
+      </c>
+      <c r="C154">
+        <v>9800</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>44</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+      <c r="H154">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J154" s="2">
+        <v>4.9976000000000003</v>
+      </c>
+      <c r="K154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>50.7</v>
+      </c>
+      <c r="G156" t="s">
+        <v>151</v>
+      </c>
+      <c r="H156">
+        <v>0.02</v>
+      </c>
+      <c r="J156" s="2">
+        <v>41.798000000000002</v>
+      </c>
+      <c r="K156" t="s">
+        <v>213</v>
+      </c>
+      <c r="L156" s="2">
+        <v>1.4649000000000001</v>
+      </c>
+      <c r="M156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B157" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C157" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F157">
+        <v>33.4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>151</v>
+      </c>
+      <c r="H157">
+        <v>0.03</v>
+      </c>
+      <c r="J157" s="2">
+        <v>6.0164999999999997</v>
+      </c>
+      <c r="K157" t="s">
+        <v>220</v>
+      </c>
+      <c r="L157" s="2">
+        <v>4.2423999999999999</v>
+      </c>
+      <c r="M157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C158" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="4">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>59.3</v>
+      </c>
+      <c r="G158" t="s">
+        <v>151</v>
+      </c>
+      <c r="H158">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J158" s="2">
+        <v>39.023000000000003</v>
+      </c>
+      <c r="K158" t="s">
+        <v>221</v>
+      </c>
+      <c r="L158" s="2">
+        <v>6.5929000000000002</v>
+      </c>
+      <c r="M158" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F159">
+        <v>102.2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>151</v>
+      </c>
+      <c r="H159">
+        <v>0.01</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0.27805999999999997</v>
+      </c>
+      <c r="K159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B160" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C160" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F160">
+        <v>77.7</v>
+      </c>
+      <c r="G160" t="s">
+        <v>151</v>
+      </c>
+      <c r="H160">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K160" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161">
+        <v>1400</v>
+      </c>
+      <c r="C161">
+        <v>9800</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>39.5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>151</v>
+      </c>
+      <c r="H161">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0.40409</v>
+      </c>
+      <c r="K161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C163" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>48</v>
+      </c>
+      <c r="G163" t="s">
+        <v>151</v>
+      </c>
+      <c r="H163">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J163" s="2">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="K163" t="s">
+        <v>214</v>
+      </c>
+      <c r="L163" s="2">
+        <v>1.8903000000000001</v>
+      </c>
+      <c r="M163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B164" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C164" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F164">
+        <v>26.9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>151</v>
+      </c>
+      <c r="H164">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J164" s="2">
+        <v>54.127000000000002</v>
+      </c>
+      <c r="K164" t="s">
+        <v>215</v>
+      </c>
+      <c r="L164" s="2">
+        <v>5.0473999999999997</v>
+      </c>
+      <c r="M164" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B165" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C165" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>70.7</v>
+      </c>
+      <c r="G165" t="s">
+        <v>151</v>
+      </c>
+      <c r="H165">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J165" s="2">
+        <v>1.3798999999999999</v>
+      </c>
+      <c r="K165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C166" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F166">
+        <v>101.3</v>
+      </c>
+      <c r="G166" t="s">
+        <v>151</v>
+      </c>
+      <c r="H166">
+        <v>0.01</v>
+      </c>
+      <c r="J166" s="2">
+        <v>19.361999999999998</v>
+      </c>
+      <c r="K166" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C167" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F167">
+        <v>81.8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>151</v>
+      </c>
+      <c r="H167">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J167" s="2">
+        <v>1.9057000000000001E-2</v>
+      </c>
+      <c r="K167" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B168">
+        <v>1400</v>
+      </c>
+      <c r="C168">
+        <v>9800</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>36.1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>151</v>
+      </c>
+      <c r="H168">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J168" s="2">
+        <v>4.249E-2</v>
+      </c>
+      <c r="K168" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C170" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>49.5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>151</v>
+      </c>
+      <c r="H170">
+        <v>0.02</v>
+      </c>
+      <c r="J170" s="2">
+        <v>2.0716000000000001</v>
+      </c>
+      <c r="K170" t="s">
+        <v>213</v>
+      </c>
+      <c r="L170" s="2">
+        <v>1.4197E-2</v>
+      </c>
+      <c r="M170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C171" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F171">
+        <v>32.4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>151</v>
+      </c>
+      <c r="H171">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J171" s="2">
+        <v>4.8646000000000003</v>
+      </c>
+      <c r="K171" t="s">
+        <v>214</v>
+      </c>
+      <c r="L171" s="2">
+        <v>0.12263</v>
+      </c>
+      <c r="M171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B172" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C172" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>62.6</v>
+      </c>
+      <c r="G172" t="s">
+        <v>151</v>
+      </c>
+      <c r="H172">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J172" s="2">
+        <v>43.697000000000003</v>
+      </c>
+      <c r="K172" t="s">
+        <v>215</v>
+      </c>
+      <c r="L172" s="2">
+        <v>7.9197000000000004E-2</v>
+      </c>
+      <c r="M172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C173" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F173">
+        <v>97.3</v>
+      </c>
+      <c r="G173" t="s">
+        <v>151</v>
+      </c>
+      <c r="H173">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J173" s="2">
+        <v>22.097000000000001</v>
+      </c>
+      <c r="K173" t="s">
+        <v>216</v>
+      </c>
+      <c r="L173" s="2">
+        <v>8.0953999999999998E-2</v>
+      </c>
+      <c r="M173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C174" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F174">
+        <v>78.3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>151</v>
+      </c>
+      <c r="H174">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J174" s="2">
+        <v>21.286000000000001</v>
+      </c>
+      <c r="K174" t="s">
+        <v>217</v>
+      </c>
+      <c r="L174" s="2">
+        <v>0.49181000000000002</v>
+      </c>
+      <c r="M174" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B175">
+        <v>1400</v>
+      </c>
+      <c r="C175">
+        <v>9800</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>42.7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>151</v>
+      </c>
+      <c r="H175">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K175" t="s">
+        <v>222</v>
+      </c>
+      <c r="L175" s="2">
+        <v>4.5072000000000001</v>
+      </c>
+      <c r="M175" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C177" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>51.4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>151</v>
+      </c>
+      <c r="H177">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J177" s="2">
+        <v>12.598000000000001</v>
+      </c>
+      <c r="K177" t="s">
+        <v>213</v>
+      </c>
+      <c r="L177" s="2">
+        <v>2.8576999999999999</v>
+      </c>
+      <c r="M177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C178" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F178">
+        <v>31.4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>151</v>
+      </c>
+      <c r="H178">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J178" s="2">
+        <v>36.606999999999999</v>
+      </c>
+      <c r="K178" t="s">
+        <v>214</v>
+      </c>
+      <c r="L178" s="2">
+        <v>19.902999999999999</v>
+      </c>
+      <c r="M178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C179" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>63.6</v>
+      </c>
+      <c r="G179" t="s">
+        <v>151</v>
+      </c>
+      <c r="H179">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J179" s="2">
+        <v>3.9157999999999999</v>
+      </c>
+      <c r="K179" t="s">
+        <v>220</v>
+      </c>
+      <c r="L179" s="2">
+        <v>3.0252000000000002E-4</v>
+      </c>
+      <c r="M179" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C180" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F180">
+        <v>99.7</v>
+      </c>
+      <c r="G180" t="s">
+        <v>151</v>
+      </c>
+      <c r="H180">
+        <v>0.01</v>
+      </c>
+      <c r="J180" s="2">
+        <v>23.164999999999999</v>
+      </c>
+      <c r="K180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C181" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F181">
+        <v>78.5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>151</v>
+      </c>
+      <c r="H181">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0.58408000000000004</v>
+      </c>
+      <c r="K181" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182">
+        <v>1400</v>
+      </c>
+      <c r="C182">
+        <v>9800</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>42.7</v>
+      </c>
+      <c r="G182" t="s">
+        <v>151</v>
+      </c>
+      <c r="H182">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J182" s="2">
+        <v>0.36934</v>
+      </c>
+      <c r="K182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="54" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+    </row>
+    <row r="186" spans="1:13" ht="46" customHeight="1">
+      <c r="A186" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A185:M185"/>
+    <mergeCell ref="A186:M186"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="4:8">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="4:8">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="4:8">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="4:8">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="4:8">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/FakeData/fakedata_properties_v2.xlsx
+++ b/Data/FakeData/fakedata_properties_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35540" windowHeight="22800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35540" windowHeight="22800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF186"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
@@ -6757,7 +6757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
